--- a/Matrices M y T (Estado Inicial).xlsx
+++ b/Matrices M y T (Estado Inicial).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\Documents\UNIVA\CUATRIMESTRE 10\METODOS FORMALES\Lineas_tren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvald\OneDrive\Documents\UNIVA\CUATRIMESTRE 10\METODOS FORMALES\Lineas_tren\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="52">
   <si>
     <t>Zoquipan</t>
   </si>
@@ -82,12 +82,108 @@
   <si>
     <t>CUCEI</t>
   </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>Estacion: Mirador</t>
+  </si>
+  <si>
+    <t>Numero: 0</t>
+  </si>
+  <si>
+    <t>Linea: 1</t>
+  </si>
+  <si>
+    <t>Estacion: Zoologico</t>
+  </si>
+  <si>
+    <t>Numero: 2</t>
+  </si>
+  <si>
+    <t>Estacion: Independencia Norte</t>
+  </si>
+  <si>
+    <t>Numero: 3</t>
+  </si>
+  <si>
+    <t>Estacion: San Patricio</t>
+  </si>
+  <si>
+    <t>Numero: 4</t>
+  </si>
+  <si>
+    <t>Estacion: Igualdad</t>
+  </si>
+  <si>
+    <t>Numero: 5</t>
+  </si>
+  <si>
+    <t>Estacion: Monumental</t>
+  </si>
+  <si>
+    <t>Numero: 6</t>
+  </si>
+  <si>
+    <t>Estacion: Monte Olivette</t>
+  </si>
+  <si>
+    <t>Numero: 7</t>
+  </si>
+  <si>
+    <t>Estacion: Circunvalacion 2</t>
+  </si>
+  <si>
+    <t>Numero: 8</t>
+  </si>
+  <si>
+    <t>Estacion: Fac. Medicina</t>
+  </si>
+  <si>
+    <t>Numero: 9</t>
+  </si>
+  <si>
+    <t>Estacion: Zoquipan</t>
+  </si>
+  <si>
+    <t>Linea: 5</t>
+  </si>
+  <si>
+    <t>Estacion: Division Del Norte</t>
+  </si>
+  <si>
+    <t>Linea: 3</t>
+  </si>
+  <si>
+    <t>Estacion: Mezquitan</t>
+  </si>
+  <si>
+    <t>InicioIzq</t>
+  </si>
+  <si>
+    <t>FinIzq</t>
+  </si>
+  <si>
+    <t>FinDerec</t>
+  </si>
+  <si>
+    <t>InizioDer</t>
+  </si>
+  <si>
+    <t>FinDere</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +199,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +223,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -349,11 +464,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AI29" sqref="AI29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,50 +852,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
-      <c r="V1" s="23" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+      <c r="V1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="25"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="32"/>
     </row>
     <row r="2" spans="1:41" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -888,58 +1014,58 @@
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E3" s="15">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="15">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="15">
         <v>6</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="15">
         <v>7</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="15">
         <v>8</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="15">
         <v>9</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="15">
         <v>10</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="15">
         <v>11</v>
       </c>
-      <c r="O3" s="1">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="O3" s="15">
+        <v>12</v>
+      </c>
+      <c r="P3" s="15">
         <v>13</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="15">
         <v>14</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="15">
         <v>15</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="15">
         <v>16</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="18">
         <v>17</v>
       </c>
       <c r="V3" s="13"/>
@@ -1000,65 +1126,65 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>99</v>
-      </c>
-      <c r="H4" s="2">
-        <v>99</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>99</v>
-      </c>
-      <c r="K4" s="2">
-        <v>99</v>
-      </c>
-      <c r="L4" s="2">
-        <v>99</v>
-      </c>
-      <c r="M4" s="2">
-        <v>3</v>
-      </c>
-      <c r="N4" s="2">
-        <v>4</v>
-      </c>
-      <c r="O4" s="2">
-        <v>99</v>
-      </c>
-      <c r="P4" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>99</v>
-      </c>
-      <c r="R4" s="2">
-        <v>4</v>
-      </c>
-      <c r="S4" s="2">
-        <v>5</v>
-      </c>
-      <c r="T4" s="5">
-        <v>6</v>
+      <c r="E4" s="21">
+        <v>99</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2</v>
+      </c>
+      <c r="G4" s="21">
+        <v>99</v>
+      </c>
+      <c r="H4" s="21">
+        <v>99</v>
+      </c>
+      <c r="I4" s="21">
+        <v>99</v>
+      </c>
+      <c r="J4" s="21">
+        <v>99</v>
+      </c>
+      <c r="K4" s="21">
+        <v>99</v>
+      </c>
+      <c r="L4" s="21">
+        <v>99</v>
+      </c>
+      <c r="M4" s="21">
+        <v>99</v>
+      </c>
+      <c r="N4" s="21">
+        <v>99</v>
+      </c>
+      <c r="O4" s="21">
+        <v>99</v>
+      </c>
+      <c r="P4" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>99</v>
+      </c>
+      <c r="R4" s="21">
+        <v>99</v>
+      </c>
+      <c r="S4" s="21">
+        <v>99</v>
+      </c>
+      <c r="T4" s="22">
+        <v>99</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>0</v>
@@ -1125,62 +1251,62 @@
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>99</v>
-      </c>
-      <c r="K5" s="2">
-        <v>99</v>
-      </c>
-      <c r="L5" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>99</v>
-      </c>
-      <c r="O5" s="2">
-        <v>99</v>
-      </c>
-      <c r="P5" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>99</v>
-      </c>
-      <c r="R5" s="2">
-        <v>3</v>
-      </c>
-      <c r="S5" s="2">
-        <v>4</v>
-      </c>
-      <c r="T5" s="5">
-        <v>5</v>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>99</v>
+      </c>
+      <c r="H5" s="21">
+        <v>99</v>
+      </c>
+      <c r="I5" s="21">
+        <v>7</v>
+      </c>
+      <c r="J5" s="21">
+        <v>99</v>
+      </c>
+      <c r="K5" s="21">
+        <v>99</v>
+      </c>
+      <c r="L5" s="21">
+        <v>99</v>
+      </c>
+      <c r="M5" s="21">
+        <v>99</v>
+      </c>
+      <c r="N5" s="21">
+        <v>99</v>
+      </c>
+      <c r="O5" s="21">
+        <v>99</v>
+      </c>
+      <c r="P5" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>99</v>
+      </c>
+      <c r="R5" s="21">
+        <v>99</v>
+      </c>
+      <c r="S5" s="21">
+        <v>99</v>
+      </c>
+      <c r="T5" s="22">
+        <v>99</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>1</v>
@@ -1247,61 +1373,61 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>99</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>99</v>
-      </c>
-      <c r="L6" s="2">
-        <v>99</v>
-      </c>
-      <c r="M6" s="2">
-        <v>99</v>
-      </c>
-      <c r="N6" s="2">
-        <v>2</v>
-      </c>
-      <c r="O6" s="2">
-        <v>99</v>
-      </c>
-      <c r="P6" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>99</v>
-      </c>
-      <c r="R6" s="2">
-        <v>3</v>
-      </c>
-      <c r="S6" s="2">
-        <v>99</v>
-      </c>
-      <c r="T6" s="5">
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21">
+        <v>99</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>2</v>
+      </c>
+      <c r="H6" s="21">
+        <v>99</v>
+      </c>
+      <c r="I6" s="21">
+        <v>99</v>
+      </c>
+      <c r="J6" s="21">
+        <v>5</v>
+      </c>
+      <c r="K6" s="21">
+        <v>99</v>
+      </c>
+      <c r="L6" s="21">
+        <v>99</v>
+      </c>
+      <c r="M6" s="21">
+        <v>99</v>
+      </c>
+      <c r="N6" s="21">
+        <v>99</v>
+      </c>
+      <c r="O6" s="21">
+        <v>99</v>
+      </c>
+      <c r="P6" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>99</v>
+      </c>
+      <c r="R6" s="21">
+        <v>99</v>
+      </c>
+      <c r="S6" s="21">
+        <v>99</v>
+      </c>
+      <c r="T6" s="22">
         <v>99</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1369,61 +1495,61 @@
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>99</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>99</v>
-      </c>
-      <c r="I7" s="2">
-        <v>99</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>99</v>
-      </c>
-      <c r="M7" s="2">
-        <v>99</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2">
-        <v>4</v>
-      </c>
-      <c r="S7" s="2">
-        <v>4</v>
-      </c>
-      <c r="T7" s="5">
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21">
+        <v>2</v>
+      </c>
+      <c r="E7" s="21">
+        <v>3</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2</v>
+      </c>
+      <c r="H7" s="21">
+        <v>99</v>
+      </c>
+      <c r="I7" s="21">
+        <v>99</v>
+      </c>
+      <c r="J7" s="21">
+        <v>99</v>
+      </c>
+      <c r="K7" s="21">
+        <v>99</v>
+      </c>
+      <c r="L7" s="21">
+        <v>3</v>
+      </c>
+      <c r="M7" s="21">
+        <v>99</v>
+      </c>
+      <c r="N7" s="21">
+        <v>99</v>
+      </c>
+      <c r="O7" s="21">
+        <v>99</v>
+      </c>
+      <c r="P7" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>99</v>
+      </c>
+      <c r="R7" s="21">
+        <v>99</v>
+      </c>
+      <c r="S7" s="21">
+        <v>99</v>
+      </c>
+      <c r="T7" s="22">
         <v>99</v>
       </c>
       <c r="V7" s="4" t="s">
@@ -1491,61 +1617,61 @@
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="15">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
-        <v>99</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>99</v>
-      </c>
-      <c r="J8" s="2">
-        <v>99</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>99</v>
-      </c>
-      <c r="M8" s="2">
-        <v>99</v>
-      </c>
-      <c r="N8" s="2">
-        <v>99</v>
-      </c>
-      <c r="O8" s="2">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>99</v>
-      </c>
-      <c r="R8" s="2">
-        <v>99</v>
-      </c>
-      <c r="S8" s="2">
-        <v>4</v>
-      </c>
-      <c r="T8" s="5">
+      <c r="C8" s="21">
+        <v>99</v>
+      </c>
+      <c r="D8" s="21">
+        <v>99</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>3</v>
+      </c>
+      <c r="I8" s="21">
+        <v>99</v>
+      </c>
+      <c r="J8" s="21">
+        <v>99</v>
+      </c>
+      <c r="K8" s="21">
+        <v>2</v>
+      </c>
+      <c r="L8" s="21">
+        <v>99</v>
+      </c>
+      <c r="M8" s="21">
+        <v>99</v>
+      </c>
+      <c r="N8" s="21">
+        <v>99</v>
+      </c>
+      <c r="O8" s="21">
+        <v>99</v>
+      </c>
+      <c r="P8" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>99</v>
+      </c>
+      <c r="R8" s="21">
+        <v>99</v>
+      </c>
+      <c r="S8" s="21">
+        <v>99</v>
+      </c>
+      <c r="T8" s="22">
         <v>99</v>
       </c>
       <c r="V8" s="4" t="s">
@@ -1613,62 +1739,62 @@
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="15">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
-        <v>99</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>99</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>99</v>
-      </c>
-      <c r="J9" s="2">
-        <v>99</v>
-      </c>
-      <c r="K9" s="2">
-        <v>99</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>99</v>
-      </c>
-      <c r="N9" s="2">
-        <v>99</v>
-      </c>
-      <c r="O9" s="2">
-        <v>99</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>99</v>
-      </c>
-      <c r="R9" s="2">
-        <v>99</v>
-      </c>
-      <c r="S9" s="2">
-        <v>99</v>
-      </c>
-      <c r="T9" s="5">
-        <v>33</v>
+      <c r="C9" s="21">
+        <v>99</v>
+      </c>
+      <c r="D9" s="21">
+        <v>99</v>
+      </c>
+      <c r="E9" s="21">
+        <v>99</v>
+      </c>
+      <c r="F9" s="21">
+        <v>99</v>
+      </c>
+      <c r="G9" s="21">
+        <v>3</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>99</v>
+      </c>
+      <c r="J9" s="21">
+        <v>99</v>
+      </c>
+      <c r="K9" s="21">
+        <v>99</v>
+      </c>
+      <c r="L9" s="21">
+        <v>3</v>
+      </c>
+      <c r="M9" s="21">
+        <v>99</v>
+      </c>
+      <c r="N9" s="21">
+        <v>99</v>
+      </c>
+      <c r="O9" s="21">
+        <v>99</v>
+      </c>
+      <c r="P9" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>99</v>
+      </c>
+      <c r="R9" s="21">
+        <v>99</v>
+      </c>
+      <c r="S9" s="21">
+        <v>99</v>
+      </c>
+      <c r="T9" s="22">
+        <v>99</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>5</v>
@@ -1735,62 +1861,62 @@
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="15">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>99</v>
-      </c>
-      <c r="F10" s="2">
-        <v>99</v>
-      </c>
-      <c r="G10" s="2">
-        <v>99</v>
-      </c>
-      <c r="H10" s="2">
-        <v>99</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>99</v>
-      </c>
-      <c r="O10" s="2">
-        <v>99</v>
-      </c>
-      <c r="P10" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>99</v>
-      </c>
-      <c r="R10" s="2">
-        <v>2</v>
-      </c>
-      <c r="S10" s="2">
-        <v>3</v>
-      </c>
-      <c r="T10" s="5">
+      <c r="C10" s="21">
+        <v>99</v>
+      </c>
+      <c r="D10" s="21">
+        <v>7</v>
+      </c>
+      <c r="E10" s="21">
+        <v>99</v>
+      </c>
+      <c r="F10" s="21">
+        <v>99</v>
+      </c>
+      <c r="G10" s="21">
+        <v>99</v>
+      </c>
+      <c r="H10" s="21">
+        <v>99</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
         <v>4</v>
+      </c>
+      <c r="K10" s="21">
+        <v>99</v>
+      </c>
+      <c r="L10" s="21">
+        <v>99</v>
+      </c>
+      <c r="M10" s="21">
+        <v>3</v>
+      </c>
+      <c r="N10" s="21">
+        <v>99</v>
+      </c>
+      <c r="O10" s="21">
+        <v>99</v>
+      </c>
+      <c r="P10" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>99</v>
+      </c>
+      <c r="R10" s="21">
+        <v>99</v>
+      </c>
+      <c r="S10" s="21">
+        <v>99</v>
+      </c>
+      <c r="T10" s="22">
+        <v>99</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>6</v>
@@ -1857,61 +1983,61 @@
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="15">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>99</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>99</v>
-      </c>
-      <c r="H11" s="2">
-        <v>99</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2">
-        <v>99</v>
-      </c>
-      <c r="N11" s="2">
-        <v>99</v>
-      </c>
-      <c r="O11" s="2">
-        <v>99</v>
-      </c>
-      <c r="P11" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>99</v>
-      </c>
-      <c r="R11" s="2">
-        <v>2</v>
-      </c>
-      <c r="S11" s="2">
-        <v>99</v>
-      </c>
-      <c r="T11" s="5">
+      <c r="C11" s="21">
+        <v>99</v>
+      </c>
+      <c r="D11" s="21">
+        <v>99</v>
+      </c>
+      <c r="E11" s="21">
+        <v>5</v>
+      </c>
+      <c r="F11" s="21">
+        <v>99</v>
+      </c>
+      <c r="G11" s="21">
+        <v>99</v>
+      </c>
+      <c r="H11" s="21">
+        <v>99</v>
+      </c>
+      <c r="I11" s="21">
+        <v>4</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>3</v>
+      </c>
+      <c r="L11" s="21">
+        <v>99</v>
+      </c>
+      <c r="M11" s="21">
+        <v>99</v>
+      </c>
+      <c r="N11" s="21">
+        <v>2</v>
+      </c>
+      <c r="O11" s="21">
+        <v>99</v>
+      </c>
+      <c r="P11" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>99</v>
+      </c>
+      <c r="R11" s="21">
+        <v>99</v>
+      </c>
+      <c r="S11" s="21">
+        <v>99</v>
+      </c>
+      <c r="T11" s="22">
         <v>99</v>
       </c>
       <c r="V11" s="4" t="s">
@@ -1979,61 +2105,61 @@
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="15">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
-        <v>99</v>
-      </c>
-      <c r="D12" s="2">
-        <v>99</v>
-      </c>
-      <c r="E12" s="2">
-        <v>99</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>99</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>99</v>
-      </c>
-      <c r="N12" s="2">
-        <v>99</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>99</v>
-      </c>
-      <c r="R12" s="2">
-        <v>99</v>
-      </c>
-      <c r="S12" s="2">
-        <v>2</v>
-      </c>
-      <c r="T12" s="5">
+      <c r="C12" s="21">
+        <v>99</v>
+      </c>
+      <c r="D12" s="21">
+        <v>99</v>
+      </c>
+      <c r="E12" s="21">
+        <v>99</v>
+      </c>
+      <c r="F12" s="21">
+        <v>99</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2</v>
+      </c>
+      <c r="H12" s="21">
+        <v>99</v>
+      </c>
+      <c r="I12" s="21">
+        <v>99</v>
+      </c>
+      <c r="J12" s="21">
+        <v>3</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
+        <v>2</v>
+      </c>
+      <c r="M12" s="21">
+        <v>99</v>
+      </c>
+      <c r="N12" s="21">
+        <v>99</v>
+      </c>
+      <c r="O12" s="21">
+        <v>2</v>
+      </c>
+      <c r="P12" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>99</v>
+      </c>
+      <c r="R12" s="21">
+        <v>99</v>
+      </c>
+      <c r="S12" s="21">
+        <v>99</v>
+      </c>
+      <c r="T12" s="22">
         <v>99</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -2098,65 +2224,65 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="15">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
-        <v>99</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>99</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>99</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>99</v>
-      </c>
-      <c r="N13" s="2">
-        <v>99</v>
-      </c>
-      <c r="O13" s="2">
-        <v>99</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2">
-        <v>99</v>
-      </c>
-      <c r="S13" s="2">
-        <v>99</v>
-      </c>
-      <c r="T13" s="5">
-        <v>2</v>
+      <c r="C13" s="21">
+        <v>99</v>
+      </c>
+      <c r="D13" s="21">
+        <v>99</v>
+      </c>
+      <c r="E13" s="21">
+        <v>99</v>
+      </c>
+      <c r="F13" s="21">
+        <v>3</v>
+      </c>
+      <c r="G13" s="21">
+        <v>99</v>
+      </c>
+      <c r="H13" s="21">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21">
+        <v>99</v>
+      </c>
+      <c r="J13" s="21">
+        <v>99</v>
+      </c>
+      <c r="K13" s="21">
+        <v>2</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>99</v>
+      </c>
+      <c r="N13" s="21">
+        <v>99</v>
+      </c>
+      <c r="O13" s="21">
+        <v>99</v>
+      </c>
+      <c r="P13" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>3</v>
+      </c>
+      <c r="R13" s="21">
+        <v>99</v>
+      </c>
+      <c r="S13" s="21">
+        <v>99</v>
+      </c>
+      <c r="T13" s="22">
+        <v>99</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>9</v>
@@ -2223,62 +2349,62 @@
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="15">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>99</v>
-      </c>
-      <c r="F14" s="2">
-        <v>99</v>
-      </c>
-      <c r="G14" s="2">
-        <v>99</v>
-      </c>
-      <c r="H14" s="2">
-        <v>99</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>99</v>
-      </c>
-      <c r="K14" s="2">
-        <v>99</v>
-      </c>
-      <c r="L14" s="2">
-        <v>99</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2">
-        <v>2</v>
-      </c>
-      <c r="P14" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>4</v>
-      </c>
-      <c r="R14" s="2">
-        <v>1</v>
-      </c>
-      <c r="S14" s="2">
-        <v>2</v>
-      </c>
-      <c r="T14" s="5">
-        <v>3</v>
+      <c r="C14" s="21">
+        <v>99</v>
+      </c>
+      <c r="D14" s="21">
+        <v>99</v>
+      </c>
+      <c r="E14" s="21">
+        <v>99</v>
+      </c>
+      <c r="F14" s="21">
+        <v>99</v>
+      </c>
+      <c r="G14" s="21">
+        <v>99</v>
+      </c>
+      <c r="H14" s="21">
+        <v>99</v>
+      </c>
+      <c r="I14" s="21">
+        <v>3</v>
+      </c>
+      <c r="J14" s="21">
+        <v>99</v>
+      </c>
+      <c r="K14" s="21">
+        <v>99</v>
+      </c>
+      <c r="L14" s="21">
+        <v>99</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>3</v>
+      </c>
+      <c r="O14" s="21">
+        <v>99</v>
+      </c>
+      <c r="P14" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>99</v>
+      </c>
+      <c r="R14" s="21">
+        <v>2</v>
+      </c>
+      <c r="S14" s="21">
+        <v>99</v>
+      </c>
+      <c r="T14" s="22">
+        <v>99</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>15</v>
@@ -2345,61 +2471,61 @@
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="15">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>99</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2">
-        <v>99</v>
-      </c>
-      <c r="H15" s="2">
-        <v>99</v>
-      </c>
-      <c r="I15" s="2">
-        <v>99</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>99</v>
-      </c>
-      <c r="L15" s="2">
-        <v>99</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2">
-        <v>99</v>
-      </c>
-      <c r="T15" s="5">
+      <c r="C15" s="21">
+        <v>99</v>
+      </c>
+      <c r="D15" s="21">
+        <v>99</v>
+      </c>
+      <c r="E15" s="21">
+        <v>99</v>
+      </c>
+      <c r="F15" s="21">
+        <v>99</v>
+      </c>
+      <c r="G15" s="21">
+        <v>99</v>
+      </c>
+      <c r="H15" s="21">
+        <v>99</v>
+      </c>
+      <c r="I15" s="21">
+        <v>99</v>
+      </c>
+      <c r="J15" s="21">
+        <v>2</v>
+      </c>
+      <c r="K15" s="21">
+        <v>99</v>
+      </c>
+      <c r="L15" s="21">
+        <v>99</v>
+      </c>
+      <c r="M15" s="21">
+        <v>3</v>
+      </c>
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <v>2</v>
+      </c>
+      <c r="P15" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>99</v>
+      </c>
+      <c r="R15" s="21">
+        <v>3</v>
+      </c>
+      <c r="S15" s="21">
+        <v>99</v>
+      </c>
+      <c r="T15" s="22">
         <v>99</v>
       </c>
       <c r="V15" s="4" t="s">
@@ -2467,61 +2593,61 @@
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>99</v>
-      </c>
-      <c r="D16" s="2">
-        <v>99</v>
-      </c>
-      <c r="E16" s="2">
-        <v>99</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>99</v>
-      </c>
-      <c r="I16" s="2">
-        <v>99</v>
-      </c>
-      <c r="J16" s="2">
-        <v>99</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="B16" s="15">
+        <v>12</v>
+      </c>
+      <c r="C16" s="21">
+        <v>99</v>
+      </c>
+      <c r="D16" s="21">
+        <v>99</v>
+      </c>
+      <c r="E16" s="21">
+        <v>99</v>
+      </c>
+      <c r="F16" s="21">
+        <v>99</v>
+      </c>
+      <c r="G16" s="21">
+        <v>99</v>
+      </c>
+      <c r="H16" s="21">
+        <v>99</v>
+      </c>
+      <c r="I16" s="21">
+        <v>99</v>
+      </c>
+      <c r="J16" s="21">
+        <v>99</v>
+      </c>
+      <c r="K16" s="21">
+        <v>2</v>
+      </c>
+      <c r="L16" s="21">
+        <v>99</v>
+      </c>
+      <c r="M16" s="21">
+        <v>99</v>
+      </c>
+      <c r="N16" s="21">
+        <v>2</v>
+      </c>
+      <c r="O16" s="21">
+        <v>0</v>
+      </c>
+      <c r="P16" s="21">
         <v>1</v>
       </c>
-      <c r="L16" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2">
-        <v>2</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2">
-        <v>99</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1</v>
-      </c>
-      <c r="T16" s="5">
+      <c r="Q16" s="21">
+        <v>99</v>
+      </c>
+      <c r="R16" s="21">
+        <v>99</v>
+      </c>
+      <c r="S16" s="21">
+        <v>2</v>
+      </c>
+      <c r="T16" s="22">
         <v>99</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -2589,62 +2715,62 @@
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="15">
         <v>13</v>
       </c>
-      <c r="C17" s="10">
-        <v>99</v>
-      </c>
-      <c r="D17" s="10">
-        <v>99</v>
-      </c>
-      <c r="E17" s="10">
-        <v>99</v>
-      </c>
-      <c r="F17" s="10">
-        <v>99</v>
-      </c>
-      <c r="G17" s="10">
-        <v>99</v>
-      </c>
-      <c r="H17" s="10">
-        <v>2</v>
-      </c>
-      <c r="I17" s="10">
-        <v>99</v>
-      </c>
-      <c r="J17" s="10">
-        <v>99</v>
-      </c>
-      <c r="K17" s="10">
-        <v>99</v>
-      </c>
-      <c r="L17" s="10">
+      <c r="C17" s="23">
+        <v>99</v>
+      </c>
+      <c r="D17" s="23">
+        <v>99</v>
+      </c>
+      <c r="E17" s="23">
+        <v>99</v>
+      </c>
+      <c r="F17" s="23">
+        <v>99</v>
+      </c>
+      <c r="G17" s="23">
+        <v>99</v>
+      </c>
+      <c r="H17" s="23">
+        <v>99</v>
+      </c>
+      <c r="I17" s="23">
+        <v>99</v>
+      </c>
+      <c r="J17" s="23">
+        <v>99</v>
+      </c>
+      <c r="K17" s="23">
+        <v>99</v>
+      </c>
+      <c r="L17" s="23">
+        <v>4</v>
+      </c>
+      <c r="M17" s="23">
+        <v>99</v>
+      </c>
+      <c r="N17" s="23">
+        <v>99</v>
+      </c>
+      <c r="O17" s="23">
         <v>1</v>
       </c>
-      <c r="M17" s="10">
-        <v>3</v>
-      </c>
-      <c r="N17" s="10">
-        <v>2</v>
-      </c>
-      <c r="O17" s="10">
-        <v>1</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>1</v>
-      </c>
-      <c r="R17" s="10">
-        <v>99</v>
-      </c>
-      <c r="S17" s="10">
-        <v>99</v>
-      </c>
-      <c r="T17" s="15">
-        <v>1</v>
+      <c r="P17" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="23">
+        <v>2</v>
+      </c>
+      <c r="R17" s="23">
+        <v>99</v>
+      </c>
+      <c r="S17" s="23">
+        <v>99</v>
+      </c>
+      <c r="T17" s="25">
+        <v>4</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>18</v>
@@ -2711,61 +2837,61 @@
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="15">
         <v>14</v>
       </c>
-      <c r="C18" s="10">
-        <v>99</v>
-      </c>
-      <c r="D18" s="10">
-        <v>3</v>
-      </c>
-      <c r="E18" s="10">
-        <v>99</v>
-      </c>
-      <c r="F18" s="10">
-        <v>2</v>
-      </c>
-      <c r="G18" s="10">
-        <v>99</v>
-      </c>
-      <c r="H18" s="10">
-        <v>99</v>
-      </c>
-      <c r="I18" s="10">
-        <v>99</v>
-      </c>
-      <c r="J18" s="10">
-        <v>99</v>
-      </c>
-      <c r="K18" s="10">
-        <v>99</v>
-      </c>
-      <c r="L18" s="10">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10">
-        <v>4</v>
-      </c>
-      <c r="N18" s="10">
-        <v>3</v>
-      </c>
-      <c r="O18" s="10">
-        <v>2</v>
-      </c>
-      <c r="P18" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10">
-        <v>99</v>
-      </c>
-      <c r="S18" s="10">
-        <v>99</v>
-      </c>
-      <c r="T18" s="15">
+      <c r="C18" s="23">
+        <v>99</v>
+      </c>
+      <c r="D18" s="23">
+        <v>99</v>
+      </c>
+      <c r="E18" s="23">
+        <v>99</v>
+      </c>
+      <c r="F18" s="23">
+        <v>99</v>
+      </c>
+      <c r="G18" s="23">
+        <v>99</v>
+      </c>
+      <c r="H18" s="23">
+        <v>99</v>
+      </c>
+      <c r="I18" s="23">
+        <v>99</v>
+      </c>
+      <c r="J18" s="23">
+        <v>99</v>
+      </c>
+      <c r="K18" s="23">
+        <v>99</v>
+      </c>
+      <c r="L18" s="23">
+        <v>3</v>
+      </c>
+      <c r="M18" s="23">
+        <v>99</v>
+      </c>
+      <c r="N18" s="23">
+        <v>99</v>
+      </c>
+      <c r="O18" s="23">
+        <v>99</v>
+      </c>
+      <c r="P18" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>0</v>
+      </c>
+      <c r="R18" s="23">
+        <v>99</v>
+      </c>
+      <c r="S18" s="23">
+        <v>99</v>
+      </c>
+      <c r="T18" s="25">
         <v>99</v>
       </c>
       <c r="V18" s="4" t="s">
@@ -2833,62 +2959,62 @@
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="15">
         <v>15</v>
       </c>
-      <c r="C19" s="10">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10">
-        <v>3</v>
-      </c>
-      <c r="E19" s="10">
-        <v>3</v>
-      </c>
-      <c r="F19" s="10">
-        <v>4</v>
-      </c>
-      <c r="G19" s="10">
-        <v>99</v>
-      </c>
-      <c r="H19" s="10">
-        <v>99</v>
-      </c>
-      <c r="I19" s="10">
-        <v>2</v>
-      </c>
-      <c r="J19" s="10">
-        <v>2</v>
-      </c>
-      <c r="K19" s="10">
-        <v>99</v>
-      </c>
-      <c r="L19" s="10">
-        <v>99</v>
-      </c>
-      <c r="M19" s="10">
-        <v>1</v>
-      </c>
-      <c r="N19" s="10">
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
-        <v>99</v>
-      </c>
-      <c r="P19" s="10">
-        <v>99</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>99</v>
-      </c>
-      <c r="R19" s="10">
-        <v>0</v>
-      </c>
-      <c r="S19" s="10">
-        <v>1</v>
-      </c>
-      <c r="T19" s="15">
-        <v>2</v>
+      <c r="C19" s="23">
+        <v>99</v>
+      </c>
+      <c r="D19" s="23">
+        <v>99</v>
+      </c>
+      <c r="E19" s="23">
+        <v>99</v>
+      </c>
+      <c r="F19" s="23">
+        <v>99</v>
+      </c>
+      <c r="G19" s="23">
+        <v>99</v>
+      </c>
+      <c r="H19" s="23">
+        <v>99</v>
+      </c>
+      <c r="I19" s="23">
+        <v>99</v>
+      </c>
+      <c r="J19" s="23">
+        <v>99</v>
+      </c>
+      <c r="K19" s="23">
+        <v>99</v>
+      </c>
+      <c r="L19" s="23">
+        <v>99</v>
+      </c>
+      <c r="M19" s="23">
+        <v>2</v>
+      </c>
+      <c r="N19" s="23">
+        <v>3</v>
+      </c>
+      <c r="O19" s="23">
+        <v>99</v>
+      </c>
+      <c r="P19" s="23">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>99</v>
+      </c>
+      <c r="R19" s="23">
+        <v>0</v>
+      </c>
+      <c r="S19" s="23">
+        <v>3</v>
+      </c>
+      <c r="T19" s="25">
+        <v>99</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>10</v>
@@ -2955,62 +3081,62 @@
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="15">
         <v>16</v>
       </c>
-      <c r="C20" s="10">
-        <v>5</v>
-      </c>
-      <c r="D20" s="10">
-        <v>4</v>
-      </c>
-      <c r="E20" s="10">
-        <v>99</v>
-      </c>
-      <c r="F20" s="10">
-        <v>4</v>
-      </c>
-      <c r="G20" s="10">
-        <v>3</v>
-      </c>
-      <c r="H20" s="10">
-        <v>99</v>
-      </c>
-      <c r="I20" s="10">
-        <v>3</v>
-      </c>
-      <c r="J20" s="10">
-        <v>99</v>
-      </c>
-      <c r="K20" s="10">
-        <v>2</v>
-      </c>
-      <c r="L20" s="10">
-        <v>99</v>
-      </c>
-      <c r="M20" s="10">
-        <v>2</v>
-      </c>
-      <c r="N20" s="10">
-        <v>99</v>
-      </c>
-      <c r="O20" s="10">
-        <v>1</v>
-      </c>
-      <c r="P20" s="10">
-        <v>99</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>99</v>
-      </c>
-      <c r="R20" s="10">
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <v>0</v>
-      </c>
-      <c r="T20" s="15">
-        <v>1</v>
+      <c r="C20" s="23">
+        <v>99</v>
+      </c>
+      <c r="D20" s="23">
+        <v>99</v>
+      </c>
+      <c r="E20" s="23">
+        <v>99</v>
+      </c>
+      <c r="F20" s="23">
+        <v>99</v>
+      </c>
+      <c r="G20" s="23">
+        <v>99</v>
+      </c>
+      <c r="H20" s="23">
+        <v>99</v>
+      </c>
+      <c r="I20" s="23">
+        <v>99</v>
+      </c>
+      <c r="J20" s="23">
+        <v>99</v>
+      </c>
+      <c r="K20" s="23">
+        <v>99</v>
+      </c>
+      <c r="L20" s="23">
+        <v>99</v>
+      </c>
+      <c r="M20" s="23">
+        <v>99</v>
+      </c>
+      <c r="N20" s="23">
+        <v>99</v>
+      </c>
+      <c r="O20" s="23">
+        <v>2</v>
+      </c>
+      <c r="P20" s="23">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>99</v>
+      </c>
+      <c r="R20" s="23">
+        <v>3</v>
+      </c>
+      <c r="S20" s="23">
+        <v>0</v>
+      </c>
+      <c r="T20" s="25">
+        <v>3</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>11</v>
@@ -3077,61 +3203,61 @@
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="17">
         <v>17</v>
       </c>
-      <c r="C21" s="16">
-        <v>6</v>
-      </c>
-      <c r="D21" s="16">
-        <v>5</v>
-      </c>
-      <c r="E21" s="16">
-        <v>99</v>
-      </c>
-      <c r="F21" s="16">
-        <v>99</v>
-      </c>
-      <c r="G21" s="16">
-        <v>99</v>
-      </c>
-      <c r="H21" s="16">
-        <v>3</v>
-      </c>
-      <c r="I21" s="16">
+      <c r="C21" s="24">
+        <v>99</v>
+      </c>
+      <c r="D21" s="24">
+        <v>99</v>
+      </c>
+      <c r="E21" s="24">
+        <v>99</v>
+      </c>
+      <c r="F21" s="24">
+        <v>99</v>
+      </c>
+      <c r="G21" s="24">
+        <v>99</v>
+      </c>
+      <c r="H21" s="24">
+        <v>99</v>
+      </c>
+      <c r="I21" s="24">
+        <v>99</v>
+      </c>
+      <c r="J21" s="24">
+        <v>99</v>
+      </c>
+      <c r="K21" s="24">
+        <v>99</v>
+      </c>
+      <c r="L21" s="24">
+        <v>99</v>
+      </c>
+      <c r="M21" s="24">
+        <v>99</v>
+      </c>
+      <c r="N21" s="24">
+        <v>99</v>
+      </c>
+      <c r="O21" s="24">
+        <v>99</v>
+      </c>
+      <c r="P21" s="24">
         <v>4</v>
       </c>
-      <c r="J21" s="16">
-        <v>99</v>
-      </c>
-      <c r="K21" s="16">
-        <v>99</v>
-      </c>
-      <c r="L21" s="16">
-        <v>2</v>
-      </c>
-      <c r="M21" s="16">
-        <v>3</v>
-      </c>
-      <c r="N21" s="16">
-        <v>99</v>
-      </c>
-      <c r="O21" s="16">
-        <v>99</v>
-      </c>
-      <c r="P21" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>99</v>
-      </c>
-      <c r="R21" s="16">
-        <v>2</v>
-      </c>
-      <c r="S21" s="16">
-        <v>1</v>
-      </c>
-      <c r="T21" s="17">
+      <c r="Q21" s="24">
+        <v>99</v>
+      </c>
+      <c r="R21" s="24">
+        <v>99</v>
+      </c>
+      <c r="S21" s="24">
+        <v>3</v>
+      </c>
+      <c r="T21" s="26">
         <v>0</v>
       </c>
       <c r="V21" s="6" t="s">
@@ -3404,7 +3530,7 @@
       <c r="AI24" s="1">
         <v>11</v>
       </c>
-      <c r="AJ24" s="19">
+      <c r="AJ24" s="1">
         <v>12</v>
       </c>
       <c r="AK24" s="1">
@@ -3437,67 +3563,67 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>9</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>13</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>13</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>99</v>
+      </c>
+      <c r="Z25">
         <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-      <c r="P25">
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-      <c r="R25">
-        <v>4</v>
-      </c>
-      <c r="S25">
-        <v>5</v>
-      </c>
-      <c r="T25">
-        <v>5</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>99</v>
-      </c>
-      <c r="Z25">
-        <v>99</v>
       </c>
       <c r="AA25">
         <v>99</v>
@@ -3509,40 +3635,40 @@
         <v>4</v>
       </c>
       <c r="AD25">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AE25">
         <v>2</v>
       </c>
       <c r="AF25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH25">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="AI25">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="AJ25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AK25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AL25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AM25">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="AN25">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AO25">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -3559,52 +3685,52 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T26">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="V26" s="4" t="s">
         <v>1</v>
@@ -3625,10 +3751,10 @@
         <v>99</v>
       </c>
       <c r="AB26">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="AC26">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="AD26">
         <v>99</v>
@@ -3637,34 +3763,34 @@
         <v>2</v>
       </c>
       <c r="AF26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH26">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="AI26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AK26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AL26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AM26">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="AN26">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AO26">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -3675,82 +3801,82 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <v>7</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>11</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2</v>
+      </c>
+      <c r="X27">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
-      <c r="P27">
+      <c r="Y27">
+        <v>99</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>99</v>
+      </c>
+      <c r="AB27">
+        <v>99</v>
+      </c>
+      <c r="AC27">
         <v>4</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <v>3</v>
-      </c>
-      <c r="S27">
-        <v>4</v>
-      </c>
-      <c r="T27">
-        <v>5</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W27" s="1">
-        <v>2</v>
-      </c>
-      <c r="X27">
-        <v>99</v>
-      </c>
-      <c r="Y27">
-        <v>99</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>99</v>
-      </c>
-      <c r="AB27">
-        <v>99</v>
-      </c>
-      <c r="AC27">
-        <v>99</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -3762,31 +3888,31 @@
         <v>4</v>
       </c>
       <c r="AG27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AI27">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="AJ27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK27">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AL27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AM27">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="AN27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO27">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
@@ -3797,58 +3923,58 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L28">
         <v>3</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V28" s="4" t="s">
         <v>3</v>
@@ -3860,7 +3986,7 @@
         <v>99</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="Z28">
         <v>99</v>
@@ -3875,40 +4001,40 @@
         <v>4</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AF28">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="AG28">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI28">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AJ28">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AK28">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AL28">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="AM28">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AN28">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AO28">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -3919,58 +4045,58 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>3</v>
-      </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
       <c r="P29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V29" s="4" t="s">
         <v>4</v>
@@ -3982,7 +4108,7 @@
         <v>3</v>
       </c>
       <c r="Y29">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="Z29">
         <v>99</v>
@@ -3997,40 +4123,40 @@
         <v>99</v>
       </c>
       <c r="AD29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF29">
         <v>99</v>
       </c>
       <c r="AG29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH29">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AJ29">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AK29">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AL29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AM29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AN29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO29">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -4041,73 +4167,73 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R30">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="V30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="W30" s="19">
+      <c r="W30" s="1">
         <v>5</v>
       </c>
       <c r="X30">
         <v>4</v>
       </c>
       <c r="Y30">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="Z30">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="AA30">
         <v>4</v>
@@ -4119,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF30">
         <v>4</v>
@@ -4131,28 +4257,28 @@
         <v>99</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI30">
-        <v>2</v>
-      </c>
-      <c r="AJ30" s="18">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="AJ30" s="20">
+        <v>8</v>
       </c>
       <c r="AK30">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="AL30">
         <v>9</v>
       </c>
       <c r="AM30">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AN30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO30">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -4163,58 +4289,58 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>4</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
       <c r="K31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V31" s="4" t="s">
         <v>6</v>
@@ -4223,7 +4349,7 @@
         <v>6</v>
       </c>
       <c r="X31">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>99</v>
@@ -4235,10 +4361,10 @@
         <v>1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -4247,34 +4373,34 @@
         <v>99</v>
       </c>
       <c r="AF31">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="AG31">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AH31">
         <v>99</v>
       </c>
       <c r="AI31">
+        <v>7</v>
+      </c>
+      <c r="AJ31">
+        <v>11</v>
+      </c>
+      <c r="AK31">
+        <v>12</v>
+      </c>
+      <c r="AL31">
+        <v>13</v>
+      </c>
+      <c r="AM31">
         <v>10</v>
       </c>
-      <c r="AJ31">
-        <v>8</v>
-      </c>
-      <c r="AK31">
-        <v>9</v>
-      </c>
-      <c r="AL31">
-        <v>3</v>
-      </c>
-      <c r="AM31">
-        <v>99</v>
-      </c>
       <c r="AN31">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="AO31">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -4285,58 +4411,58 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V32" s="4" t="s">
         <v>7</v>
@@ -4345,7 +4471,7 @@
         <v>7</v>
       </c>
       <c r="X32">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="Y32">
         <v>2</v>
@@ -4354,13 +4480,13 @@
         <v>99</v>
       </c>
       <c r="AA32">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AB32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AD32">
         <v>99</v>
@@ -4372,31 +4498,31 @@
         <v>99</v>
       </c>
       <c r="AG32">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AH32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI32">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="AJ32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AK32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AM32">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="AN32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO32">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
@@ -4407,58 +4533,58 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>2</v>
-      </c>
-      <c r="Q33">
-        <v>2</v>
-      </c>
-      <c r="R33">
-        <v>3</v>
-      </c>
-      <c r="S33">
-        <v>2</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="J33" s="20">
+        <v>3</v>
+      </c>
+      <c r="K33" s="20">
+        <v>0</v>
+      </c>
+      <c r="L33" s="20">
+        <v>2</v>
+      </c>
+      <c r="M33" s="20">
+        <v>7</v>
+      </c>
+      <c r="N33" s="20">
+        <v>4</v>
+      </c>
+      <c r="O33" s="20">
+        <v>2</v>
+      </c>
+      <c r="P33" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>5</v>
+      </c>
+      <c r="R33" s="20">
+        <v>7</v>
+      </c>
+      <c r="S33" s="20">
+        <v>4</v>
+      </c>
+      <c r="T33" s="20">
+        <v>7</v>
       </c>
       <c r="V33" s="4" t="s">
         <v>8</v>
@@ -4467,7 +4593,7 @@
         <v>8</v>
       </c>
       <c r="X33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y33">
         <v>4</v>
@@ -4476,7 +4602,7 @@
         <v>4</v>
       </c>
       <c r="AA33">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="AB33">
         <v>99</v>
@@ -4485,7 +4611,7 @@
         <v>4</v>
       </c>
       <c r="AD33">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="AE33">
         <v>99</v>
@@ -4497,7 +4623,7 @@
         <v>99</v>
       </c>
       <c r="AH33">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI33">
         <v>12</v>
@@ -4506,19 +4632,19 @@
         <v>99</v>
       </c>
       <c r="AK33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL33">
         <v>9</v>
       </c>
       <c r="AM33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AN33">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AO33">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
@@ -4529,58 +4655,58 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+        <v>9</v>
+      </c>
+      <c r="J34" s="20">
+        <v>5</v>
+      </c>
+      <c r="K34" s="20">
+        <v>2</v>
+      </c>
+      <c r="L34" s="20">
+        <v>0</v>
+      </c>
+      <c r="M34" s="20">
+        <v>9</v>
+      </c>
+      <c r="N34" s="20">
+        <v>6</v>
+      </c>
+      <c r="O34" s="20">
         <v>4</v>
       </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34">
-        <v>2</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34">
+      <c r="P34" s="20">
         <v>4</v>
       </c>
-      <c r="S34">
-        <v>3</v>
-      </c>
-      <c r="T34">
-        <v>2</v>
+      <c r="Q34" s="20">
+        <v>3</v>
+      </c>
+      <c r="R34" s="20">
+        <v>9</v>
+      </c>
+      <c r="S34" s="20">
+        <v>6</v>
+      </c>
+      <c r="T34" s="20">
+        <v>8</v>
       </c>
       <c r="V34" s="4" t="s">
         <v>9</v>
@@ -4592,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="Y34">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="Z34">
         <v>3</v>
@@ -4601,16 +4727,16 @@
         <v>99</v>
       </c>
       <c r="AB34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AC34">
         <v>99</v>
       </c>
       <c r="AD34">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AE34">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AF34">
         <v>99</v>
@@ -4619,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI34">
         <v>12</v>
@@ -4634,13 +4760,13 @@
         <v>99</v>
       </c>
       <c r="AM34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AN34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO34">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -4651,58 +4777,58 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" s="20">
         <v>5</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
-      <c r="P35">
-        <v>3</v>
-      </c>
-      <c r="Q35">
-        <v>4</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
+      <c r="K35" s="20">
+        <v>7</v>
+      </c>
+      <c r="L35" s="20">
+        <v>9</v>
+      </c>
+      <c r="M35" s="20">
+        <v>0</v>
+      </c>
+      <c r="N35" s="20">
+        <v>3</v>
+      </c>
+      <c r="O35" s="20">
+        <v>5</v>
+      </c>
+      <c r="P35" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="20">
+        <v>8</v>
+      </c>
+      <c r="R35" s="20">
+        <v>2</v>
+      </c>
+      <c r="S35" s="20">
+        <v>5</v>
+      </c>
+      <c r="T35" s="20">
+        <v>8</v>
       </c>
       <c r="V35" s="4" t="s">
         <v>15</v>
@@ -4711,34 +4837,34 @@
         <v>10</v>
       </c>
       <c r="X35">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="Y35">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AD35">
         <v>99</v>
       </c>
       <c r="AE35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AG35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AH35">
         <v>0</v>
@@ -4747,22 +4873,22 @@
         <v>99</v>
       </c>
       <c r="AJ35">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="AK35">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AL35">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AM35">
         <v>99</v>
       </c>
       <c r="AN35">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="AO35">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
@@ -4773,58 +4899,58 @@
         <v>11</v>
       </c>
       <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36" s="20">
+        <v>2</v>
+      </c>
+      <c r="K36" s="20">
         <v>4</v>
       </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36">
+      <c r="L36" s="20">
+        <v>6</v>
+      </c>
+      <c r="M36" s="20">
+        <v>3</v>
+      </c>
+      <c r="N36" s="20">
+        <v>0</v>
+      </c>
+      <c r="O36" s="20">
+        <v>2</v>
+      </c>
+      <c r="P36" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="20">
+        <v>5</v>
+      </c>
+      <c r="R36" s="20">
+        <v>3</v>
+      </c>
+      <c r="S36" s="20">
         <v>4</v>
       </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>2</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
+      <c r="T36" s="20">
+        <v>7</v>
       </c>
       <c r="V36" s="4" t="s">
         <v>16</v>
@@ -4833,22 +4959,22 @@
         <v>11</v>
       </c>
       <c r="X36">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="Y36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z36">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="AA36">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AB36">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AC36">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AD36">
         <v>7</v>
@@ -4857,10 +4983,10 @@
         <v>99</v>
       </c>
       <c r="AF36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AG36">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AH36">
         <v>99</v>
@@ -4872,10 +4998,10 @@
         <v>99</v>
       </c>
       <c r="AK36">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AL36">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AM36">
         <v>99</v>
@@ -4895,58 +5021,58 @@
         <v>12</v>
       </c>
       <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="D37">
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37" s="20">
         <v>4</v>
       </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37">
+      <c r="K37" s="20">
+        <v>2</v>
+      </c>
+      <c r="L37" s="20">
+        <v>4</v>
+      </c>
+      <c r="M37" s="20">
+        <v>5</v>
+      </c>
+      <c r="N37" s="20">
+        <v>2</v>
+      </c>
+      <c r="O37" s="20">
+        <v>0</v>
+      </c>
+      <c r="P37" s="20">
         <v>1</v>
       </c>
-      <c r="L37">
-        <v>2</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>2</v>
-      </c>
-      <c r="R37">
-        <v>2</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>2</v>
+      <c r="Q37" s="20">
+        <v>3</v>
+      </c>
+      <c r="R37" s="20">
+        <v>5</v>
+      </c>
+      <c r="S37" s="20">
+        <v>2</v>
+      </c>
+      <c r="T37" s="20">
+        <v>5</v>
       </c>
       <c r="V37" s="4" t="s">
         <v>17</v>
@@ -4955,28 +5081,28 @@
         <v>12</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA37">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AB37">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="AC37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF37">
         <v>99</v>
@@ -4985,7 +5111,7 @@
         <v>8</v>
       </c>
       <c r="AH37">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="AI37">
         <v>99</v>
@@ -4997,7 +5123,7 @@
         <v>99</v>
       </c>
       <c r="AL37">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AM37">
         <v>11</v>
@@ -5017,58 +5143,58 @@
         <v>13</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38" s="20">
+        <v>5</v>
+      </c>
+      <c r="K38" s="20">
+        <v>3</v>
+      </c>
+      <c r="L38" s="20">
         <v>4</v>
       </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
+      <c r="M38" s="20">
+        <v>6</v>
+      </c>
+      <c r="N38" s="20">
+        <v>3</v>
+      </c>
+      <c r="O38" s="20">
         <v>1</v>
       </c>
-      <c r="M38">
-        <v>3</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38">
-        <v>3</v>
-      </c>
-      <c r="S38">
-        <v>2</v>
-      </c>
-      <c r="T38">
-        <v>1</v>
+      <c r="P38" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="20">
+        <v>2</v>
+      </c>
+      <c r="R38" s="20">
+        <v>6</v>
+      </c>
+      <c r="S38" s="20">
+        <v>3</v>
+      </c>
+      <c r="T38" s="20">
+        <v>4</v>
       </c>
       <c r="V38" s="4" t="s">
         <v>18</v>
@@ -5083,34 +5209,34 @@
         <v>9</v>
       </c>
       <c r="Z38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA38">
         <v>9</v>
       </c>
       <c r="AB38">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AC38">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="AD38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AG38">
         <v>99</v>
       </c>
       <c r="AH38">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AI38">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AJ38">
         <v>99</v>
@@ -5122,7 +5248,7 @@
         <v>99</v>
       </c>
       <c r="AM38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN38">
         <v>12</v>
@@ -5139,58 +5265,58 @@
         <v>14</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>4</v>
-      </c>
-      <c r="J39">
-        <v>3</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>4</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <v>2</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>4</v>
-      </c>
-      <c r="S39">
-        <v>3</v>
-      </c>
-      <c r="T39">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="J39" s="20">
+        <v>7</v>
+      </c>
+      <c r="K39" s="20">
+        <v>5</v>
+      </c>
+      <c r="L39" s="20">
+        <v>3</v>
+      </c>
+      <c r="M39" s="20">
+        <v>8</v>
+      </c>
+      <c r="N39" s="20">
+        <v>5</v>
+      </c>
+      <c r="O39" s="20">
+        <v>3</v>
+      </c>
+      <c r="P39" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="20">
+        <v>0</v>
+      </c>
+      <c r="R39" s="20">
+        <v>8</v>
+      </c>
+      <c r="S39" s="20">
+        <v>5</v>
+      </c>
+      <c r="T39" s="20">
+        <v>6</v>
       </c>
       <c r="V39" s="4" t="s">
         <v>19</v>
@@ -5199,28 +5325,28 @@
         <v>14</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Y39">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="Z39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA39">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="AB39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AC39">
         <v>9</v>
       </c>
       <c r="AD39">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AE39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF39">
         <v>9</v>
@@ -5229,13 +5355,13 @@
         <v>99</v>
       </c>
       <c r="AH39">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AI39">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AJ39">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AK39">
         <v>99</v>
@@ -5244,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="AM39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO39">
         <v>13</v>
@@ -5261,58 +5387,58 @@
         <v>15</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H40">
+        <v>12</v>
+      </c>
+      <c r="I40">
         <v>5</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-      <c r="K40">
-        <v>3</v>
-      </c>
-      <c r="L40">
-        <v>4</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-      <c r="P40">
-        <v>3</v>
-      </c>
-      <c r="Q40">
-        <v>4</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
+      <c r="J40" s="20">
+        <v>5</v>
+      </c>
+      <c r="K40" s="20">
+        <v>7</v>
+      </c>
+      <c r="L40" s="20">
+        <v>9</v>
+      </c>
+      <c r="M40" s="20">
+        <v>2</v>
+      </c>
+      <c r="N40" s="20">
+        <v>3</v>
+      </c>
+      <c r="O40" s="20">
+        <v>5</v>
+      </c>
+      <c r="P40" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="20">
+        <v>8</v>
+      </c>
+      <c r="R40" s="20">
+        <v>0</v>
+      </c>
+      <c r="S40" s="20">
+        <v>3</v>
+      </c>
+      <c r="T40" s="20">
+        <v>6</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>10</v>
@@ -5321,34 +5447,34 @@
         <v>15</v>
       </c>
       <c r="X40">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="Y40">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="Z40">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="AA40">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AB40">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AC40">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AD40">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="AE40">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="AF40">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AG40">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AH40">
         <v>99</v>
@@ -5360,10 +5486,10 @@
         <v>11</v>
       </c>
       <c r="AK40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL40">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -5372,7 +5498,7 @@
         <v>99</v>
       </c>
       <c r="AO40">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
@@ -5383,58 +5509,58 @@
         <v>16</v>
       </c>
       <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41" s="20">
+        <v>6</v>
+      </c>
+      <c r="K41" s="20">
+        <v>4</v>
+      </c>
+      <c r="L41" s="20">
+        <v>6</v>
+      </c>
+      <c r="M41" s="20">
         <v>5</v>
       </c>
-      <c r="D41">
+      <c r="N41" s="20">
         <v>4</v>
       </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-      <c r="J41">
-        <v>3</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41">
-        <v>2</v>
-      </c>
-      <c r="N41">
-        <v>2</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>2</v>
-      </c>
-      <c r="Q41">
-        <v>3</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>1</v>
+      <c r="O41" s="20">
+        <v>2</v>
+      </c>
+      <c r="P41" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="20">
+        <v>5</v>
+      </c>
+      <c r="R41" s="20">
+        <v>3</v>
+      </c>
+      <c r="S41" s="20">
+        <v>0</v>
+      </c>
+      <c r="T41" s="20">
+        <v>3</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>11</v>
@@ -5443,37 +5569,37 @@
         <v>16</v>
       </c>
       <c r="X41">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="Y41">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="Z41">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AA41">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AB41">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AC41">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AD41">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="AE41">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF41">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AG41">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH41">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="AI41">
         <v>12</v>
@@ -5485,7 +5611,7 @@
         <v>12</v>
       </c>
       <c r="AL41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM41">
         <v>99</v>
@@ -5505,57 +5631,57 @@
         <v>17</v>
       </c>
       <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="J42" s="20">
+        <v>9</v>
+      </c>
+      <c r="K42" s="20">
+        <v>7</v>
+      </c>
+      <c r="L42" s="20">
+        <v>8</v>
+      </c>
+      <c r="M42" s="20">
+        <v>8</v>
+      </c>
+      <c r="N42" s="20">
+        <v>7</v>
+      </c>
+      <c r="O42" s="20">
+        <v>5</v>
+      </c>
+      <c r="P42" s="20">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
-      <c r="L42">
-        <v>2</v>
-      </c>
-      <c r="M42">
-        <v>3</v>
-      </c>
-      <c r="N42">
-        <v>3</v>
-      </c>
-      <c r="O42">
-        <v>2</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>2</v>
-      </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
-      <c r="T42">
+      <c r="Q42" s="20">
+        <v>6</v>
+      </c>
+      <c r="R42" s="20">
+        <v>6</v>
+      </c>
+      <c r="S42" s="20">
+        <v>3</v>
+      </c>
+      <c r="T42" s="20">
         <v>0</v>
       </c>
       <c r="V42" s="6" t="s">
@@ -5565,37 +5691,37 @@
         <v>17</v>
       </c>
       <c r="X42">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y42">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z42">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA42">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB42">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AC42">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AD42">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="AE42">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF42">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG42">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AH42">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="AI42">
         <v>13</v>
@@ -5610,13 +5736,39 @@
         <v>13</v>
       </c>
       <c r="AM42">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="AN42">
         <v>99</v>
       </c>
       <c r="AO42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V78" t="s">
+        <v>47</v>
+      </c>
+      <c r="W78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="W79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V82" t="s">
+        <v>50</v>
+      </c>
+      <c r="W82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="W83" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5631,24 +5783,2432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="21">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="21">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="21">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="21">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="21">
+        <v>99</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="21">
+        <v>99</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="21">
+        <v>99</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="21">
+        <v>99</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="21">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="21">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="21">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="21">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="21">
+        <v>99</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="21">
+        <v>99</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="21">
+        <v>99</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="21">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="21">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="21">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="21">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="21">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="21">
+        <v>99</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="21">
+        <v>99</v>
+      </c>
+      <c r="U3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="21">
+        <v>99</v>
+      </c>
+      <c r="W3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="21">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="21">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="21">
+        <v>99</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="21">
+        <v>99</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="21">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="21">
+        <v>99</v>
+      </c>
+      <c r="W4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="21">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="21">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="21">
+        <v>99</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="21">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="21">
+        <v>99</v>
+      </c>
+      <c r="U5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="21">
+        <v>99</v>
+      </c>
+      <c r="W5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X5" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="21">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="21">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="21">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="21">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="21">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="21">
+        <v>99</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="21">
+        <v>99</v>
+      </c>
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="21">
+        <v>3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="21">
+        <v>99</v>
+      </c>
+      <c r="W6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ6" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="21">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="21">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="21">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="21">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="21">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="21">
+        <v>99</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="21">
+        <v>99</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="21">
+        <v>99</v>
+      </c>
+      <c r="U7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="21">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH7" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ7" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="21">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="21">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="21">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="21">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="21">
+        <v>99</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="21">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="21">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="21">
+        <v>99</v>
+      </c>
+      <c r="U8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="21">
+        <v>99</v>
+      </c>
+      <c r="W8" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH8" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ8" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="21">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="21">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="21">
+        <v>99</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="21">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="21">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="21">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="21">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="21">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="21">
+        <v>99</v>
+      </c>
+      <c r="W9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ9" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="21">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="21">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="21">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="21">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="21">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="21">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="21">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="21">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="21">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="21">
+        <v>99</v>
+      </c>
+      <c r="W10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="21">
+        <v>99</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH10" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="21">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="21">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="21">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="21">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="21">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="21">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="21">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="21">
+        <v>99</v>
+      </c>
+      <c r="S11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="21">
+        <v>99</v>
+      </c>
+      <c r="U11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="21">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>99</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH11" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ11" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="21">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="21">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="21">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="21">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="21">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="21">
+        <v>99</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="21">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="21">
+        <v>99</v>
+      </c>
+      <c r="S12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="21">
+        <v>99</v>
+      </c>
+      <c r="U12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="21">
+        <v>3</v>
+      </c>
+      <c r="W12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>99</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>3</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH12" s="21">
+        <v>99</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ12" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="21">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="21">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="21">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="21">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="21">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="21">
+        <v>99</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="21">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="21">
+        <v>99</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="21">
+        <v>2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="21">
+        <v>99</v>
+      </c>
+      <c r="U13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="21">
+        <v>99</v>
+      </c>
+      <c r="W13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>99</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>99</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ13" s="22">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="23">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="23">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="23">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="23">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="23">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="23">
+        <v>99</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="23">
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="23">
+        <v>99</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="23">
+        <v>99</v>
+      </c>
+      <c r="S14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="23">
+        <v>4</v>
+      </c>
+      <c r="U14" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="23">
+        <v>99</v>
+      </c>
+      <c r="W14" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="23">
+        <v>99</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF14" s="23">
+        <v>99</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH14" s="23">
+        <v>99</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ14" s="25">
+        <v>4</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="23">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="23">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="23">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="23">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="23">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="23">
+        <v>99</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="23">
+        <v>99</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="23">
+        <v>99</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="23">
+        <v>99</v>
+      </c>
+      <c r="S15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="23">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="23">
+        <v>99</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" s="23">
+        <v>99</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="23">
+        <v>99</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF15" s="23">
+        <v>99</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH15" s="23">
+        <v>99</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ15" s="25">
+        <v>99</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="23">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="23">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="23">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="23">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="23">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="23">
+        <v>99</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="23">
+        <v>99</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="23">
+        <v>99</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="23">
+        <v>99</v>
+      </c>
+      <c r="S16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="23">
+        <v>99</v>
+      </c>
+      <c r="U16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="23">
+        <v>2</v>
+      </c>
+      <c r="W16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="23">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="23">
+        <v>99</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="23">
+        <v>99</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD16" s="23">
+        <v>99</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH16" s="23">
+        <v>3</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ16" s="25">
+        <v>99</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="23">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="23">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="23">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="23">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="23">
+        <v>99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="23">
+        <v>99</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="23">
+        <v>99</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="23">
+        <v>99</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="23">
+        <v>99</v>
+      </c>
+      <c r="S17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="23">
+        <v>99</v>
+      </c>
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="23">
+        <v>99</v>
+      </c>
+      <c r="W17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="23">
+        <v>99</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="23">
+        <v>99</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD17" s="23">
+        <v>99</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF17" s="23">
+        <v>3</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ17" s="25">
+        <v>3</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="24">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="24">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="24">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="24">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="24">
+        <v>99</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="24">
+        <v>99</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="24">
+        <v>99</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="24">
+        <v>99</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="24">
+        <v>99</v>
+      </c>
+      <c r="S18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="24">
+        <v>99</v>
+      </c>
+      <c r="U18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="24">
+        <v>99</v>
+      </c>
+      <c r="W18" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="24">
+        <v>99</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="24">
+        <v>99</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="24">
+        <v>4</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD18" s="24">
+        <v>99</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF18" s="24">
+        <v>99</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH18" s="24">
+        <v>3</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Matrices M y T (Estado Inicial).xlsx
+++ b/Matrices M y T (Estado Inicial).xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvald\OneDrive\Documents\UNIVA\CUATRIMESTRE 10\METODOS FORMALES\Lineas_tren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NP001\OneDrive\Documents\UNIVA\CUATRIMESTRE 10\METODOS FORMALES\Lineas_tren\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="92">
   <si>
     <t>Zoquipan</t>
   </si>
@@ -92,78 +92,6 @@
     <t>},</t>
   </si>
   <si>
-    <t>Estacion: Mirador</t>
-  </si>
-  <si>
-    <t>Numero: 0</t>
-  </si>
-  <si>
-    <t>Linea: 1</t>
-  </si>
-  <si>
-    <t>Estacion: Zoologico</t>
-  </si>
-  <si>
-    <t>Numero: 2</t>
-  </si>
-  <si>
-    <t>Estacion: Independencia Norte</t>
-  </si>
-  <si>
-    <t>Numero: 3</t>
-  </si>
-  <si>
-    <t>Estacion: San Patricio</t>
-  </si>
-  <si>
-    <t>Numero: 4</t>
-  </si>
-  <si>
-    <t>Estacion: Igualdad</t>
-  </si>
-  <si>
-    <t>Numero: 5</t>
-  </si>
-  <si>
-    <t>Estacion: Monumental</t>
-  </si>
-  <si>
-    <t>Numero: 6</t>
-  </si>
-  <si>
-    <t>Estacion: Monte Olivette</t>
-  </si>
-  <si>
-    <t>Numero: 7</t>
-  </si>
-  <si>
-    <t>Estacion: Circunvalacion 2</t>
-  </si>
-  <si>
-    <t>Numero: 8</t>
-  </si>
-  <si>
-    <t>Estacion: Fac. Medicina</t>
-  </si>
-  <si>
-    <t>Numero: 9</t>
-  </si>
-  <si>
-    <t>Estacion: Zoquipan</t>
-  </si>
-  <si>
-    <t>Linea: 5</t>
-  </si>
-  <si>
-    <t>Estacion: Division Del Norte</t>
-  </si>
-  <si>
-    <t>Linea: 3</t>
-  </si>
-  <si>
-    <t>Estacion: Mezquitan</t>
-  </si>
-  <si>
     <t>InicioIzq</t>
   </si>
   <si>
@@ -177,6 +105,198 @@
   </si>
   <si>
     <t>FinDere</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mirador')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Zoologico')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Selva Magica')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Planetario Severo Diaz Galindo')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Estadio Jalisco')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Plaza De Toros Nuevo Progreso')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Facultad De Medicina')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mercado De San Juan De Dios')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Teatro Degollado')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Catedral Metropolitana')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Museo Regional')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Plaza De La Liberacion')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Hospicio Cabanas')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Plaza De Los Hombres Ilustres')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Parque Agua Azul')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Teatro IMSS')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Central De Autobuses De Zapopan')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Universidad Panamericana')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Camara De Comercio')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Fuente Minerva')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Plaza Comercial Centro Magno')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Zona Rosa')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Via Recreativa')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Paraninfo UDG')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Rectoria UDG')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Parque Revolucion')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Zona Comercial-Peatonal')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Fiestas De Octubre')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Dermatologico')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Templo Del Refugio')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Unidad Deportiva Adolfo Lopez Mateos')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'El Cerro Del Tesoro')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Comercial Plaza Sur')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Basilica De Zapopan')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sanatorio San Juan de Dios')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Comercial Plaza Patriz')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Club de Golf Country Club')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Monumento a Cristobal Colon')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Lienzo Charro Hermanos Zermeno')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Panteon De Belen')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mercado de Artesanias')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Comercial Plaza San Isidro')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Universitario de Ciencias Económico Administrativas')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Parque Zapopan')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Comercial Plaza Patria')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Parque Los Colomos')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Club Atlas Colomos')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro De Ensenanza Tecnica Industrial')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Lienzo Charro La Tapatia')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Comercial Plaza Pabellon')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Comercial Andares')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Estadio de Futbol 3 de Marzo')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Universidad Autonoma de Guadalajara')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Comercial La Gran Plaza')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mercado de Abastos')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Comercial Plaza Las Torrez')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Iglesia Cristo Rey')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Estacion Del Tren')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Zona Industrial La Nogalera')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Cultural Tabachines')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro De Exposiciones')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Centro Comercial Plaza Del Sol');</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -838,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:T42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5747,28 +5867,28 @@
     </row>
     <row r="78" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V78" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="W78" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W79" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V82" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="W82" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W83" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7872,340 +7992,1075 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
+        <v>90</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
